--- a/back_end/app/assets/测试预配置文件.xlsx
+++ b/back_end/app/assets/测试预配置文件.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="61">
   <si>
     <t>核心板卡代号</t>
   </si>
@@ -1163,7 +1163,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A21:$XFD1048576 J20:XFD20 A20:H20 $A1:$XFD19"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1208,7 +1208,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -1250,20 +1250,12 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1276,8 +1268,8 @@
   <sheetPr/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="6"/>
